--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Tnfrsf8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.604148165075534</v>
+        <v>0.1126785</v>
       </c>
       <c r="H2">
-        <v>0.604148165075534</v>
+        <v>0.225357</v>
       </c>
       <c r="I2">
-        <v>0.3184288119887619</v>
+        <v>0.04671387543146201</v>
       </c>
       <c r="J2">
-        <v>0.3184288119887619</v>
+        <v>0.03163518430730223</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.452061876384196</v>
+        <v>0.466323</v>
       </c>
       <c r="N2">
-        <v>0.452061876384196</v>
+        <v>0.9326460000000001</v>
       </c>
       <c r="O2">
-        <v>0.4466487403005984</v>
+        <v>0.3684202348566448</v>
       </c>
       <c r="P2">
-        <v>0.4466487403005984</v>
+        <v>0.2799992914800172</v>
       </c>
       <c r="Q2">
-        <v>0.2731123531181149</v>
+        <v>0.0525445761555</v>
       </c>
       <c r="R2">
-        <v>0.2731123531181149</v>
+        <v>0.210178304622</v>
       </c>
       <c r="S2">
-        <v>0.1422258277501966</v>
+        <v>0.01721033695752328</v>
       </c>
       <c r="T2">
-        <v>0.1422258277501966</v>
+        <v>0.008857829191884384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.604148165075534</v>
+        <v>0.1126785</v>
       </c>
       <c r="H3">
-        <v>0.604148165075534</v>
+        <v>0.225357</v>
       </c>
       <c r="I3">
-        <v>0.3184288119887619</v>
+        <v>0.04671387543146201</v>
       </c>
       <c r="J3">
-        <v>0.3184288119887619</v>
+        <v>0.03163518430730223</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.560057571394733</v>
+        <v>0.1617183333333333</v>
       </c>
       <c r="N3">
-        <v>0.560057571394733</v>
+        <v>0.485155</v>
       </c>
       <c r="O3">
-        <v>0.5533512596994015</v>
+        <v>0.1277661756921529</v>
       </c>
       <c r="P3">
-        <v>0.5533512596994015</v>
+        <v>0.14565339502661</v>
       </c>
       <c r="Q3">
-        <v>0.3383577540947879</v>
+        <v>0.0182221792225</v>
       </c>
       <c r="R3">
-        <v>0.3383577540947879</v>
+        <v>0.109333075335</v>
       </c>
       <c r="S3">
-        <v>0.1762029842385653</v>
+        <v>0.00596845321563752</v>
       </c>
       <c r="T3">
-        <v>0.1762029842385653</v>
+        <v>0.004607771996651106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.29313041754486</v>
+        <v>0.1126785</v>
       </c>
       <c r="H4">
-        <v>1.29313041754486</v>
+        <v>0.225357</v>
       </c>
       <c r="I4">
-        <v>0.6815711880112382</v>
+        <v>0.04671387543146201</v>
       </c>
       <c r="J4">
-        <v>0.6815711880112382</v>
+        <v>0.03163518430730223</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.452061876384196</v>
+        <v>0.6376953333333333</v>
       </c>
       <c r="N4">
-        <v>0.452061876384196</v>
+        <v>1.913086</v>
       </c>
       <c r="O4">
-        <v>0.4466487403005984</v>
+        <v>0.5038135894512022</v>
       </c>
       <c r="P4">
-        <v>0.4466487403005984</v>
+        <v>0.5743473134933728</v>
       </c>
       <c r="Q4">
-        <v>0.5845749629648082</v>
+        <v>0.07185455361699999</v>
       </c>
       <c r="R4">
-        <v>0.5845749629648082</v>
+        <v>0.431127321702</v>
       </c>
       <c r="S4">
-        <v>0.3044229125504019</v>
+        <v>0.02353508525830121</v>
       </c>
       <c r="T4">
-        <v>0.3044229125504019</v>
+        <v>0.01816958311876674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.2493586666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.748076</v>
+      </c>
+      <c r="I5">
+        <v>0.1033782815037663</v>
+      </c>
+      <c r="J5">
+        <v>0.1050134769981382</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.466323</v>
+      </c>
+      <c r="N5">
+        <v>0.9326460000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.3684202348566448</v>
+      </c>
+      <c r="P5">
+        <v>0.2799992914800172</v>
+      </c>
+      <c r="Q5">
+        <v>0.116281681516</v>
+      </c>
+      <c r="R5">
+        <v>0.6976900890960001</v>
+      </c>
+      <c r="S5">
+        <v>0.0380866507506939</v>
+      </c>
+      <c r="T5">
+        <v>0.02940369915533177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.2493586666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.748076</v>
+      </c>
+      <c r="I6">
+        <v>0.1033782815037663</v>
+      </c>
+      <c r="J6">
+        <v>0.1050134769981382</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1617183333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.485155</v>
+      </c>
+      <c r="O6">
+        <v>0.1277661756921529</v>
+      </c>
+      <c r="P6">
+        <v>0.14565339502661</v>
+      </c>
+      <c r="Q6">
+        <v>0.04032586797555555</v>
+      </c>
+      <c r="R6">
+        <v>0.36293281178</v>
+      </c>
+      <c r="S6">
+        <v>0.01320824767736304</v>
+      </c>
+      <c r="T6">
+        <v>0.01529556944832764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.2493586666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.748076</v>
+      </c>
+      <c r="I7">
+        <v>0.1033782815037663</v>
+      </c>
+      <c r="J7">
+        <v>0.1050134769981382</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6376953333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.913086</v>
+      </c>
+      <c r="O7">
+        <v>0.5038135894512022</v>
+      </c>
+      <c r="P7">
+        <v>0.5743473134933728</v>
+      </c>
+      <c r="Q7">
+        <v>0.1590148580595555</v>
+      </c>
+      <c r="R7">
+        <v>1.431133722536</v>
+      </c>
+      <c r="S7">
+        <v>0.0520833830757093</v>
+      </c>
+      <c r="T7">
+        <v>0.06031420839447875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.7206493333333334</v>
+      </c>
+      <c r="H8">
+        <v>2.161948</v>
+      </c>
+      <c r="I8">
+        <v>0.2987643888328251</v>
+      </c>
+      <c r="J8">
+        <v>0.3034901220854176</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.466323</v>
+      </c>
+      <c r="N8">
+        <v>0.9326460000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.3684202348566448</v>
+      </c>
+      <c r="P8">
+        <v>0.2799992914800172</v>
+      </c>
+      <c r="Q8">
+        <v>0.336055359068</v>
+      </c>
+      <c r="R8">
+        <v>2.016332154408</v>
+      </c>
+      <c r="S8">
+        <v>0.1100708463005914</v>
+      </c>
+      <c r="T8">
+        <v>0.08497701915510085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7206493333333334</v>
+      </c>
+      <c r="H9">
+        <v>2.161948</v>
+      </c>
+      <c r="I9">
+        <v>0.2987643888328251</v>
+      </c>
+      <c r="J9">
+        <v>0.3034901220854176</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1617183333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.485155</v>
+      </c>
+      <c r="O9">
+        <v>0.1277661756921529</v>
+      </c>
+      <c r="P9">
+        <v>0.14565339502661</v>
+      </c>
+      <c r="Q9">
+        <v>0.1165422091044444</v>
+      </c>
+      <c r="R9">
+        <v>1.04887988194</v>
+      </c>
+      <c r="S9">
+        <v>0.03817198339417342</v>
+      </c>
+      <c r="T9">
+        <v>0.04420436663878144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7206493333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.161948</v>
+      </c>
+      <c r="I10">
+        <v>0.2987643888328251</v>
+      </c>
+      <c r="J10">
+        <v>0.3034901220854176</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6376953333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.913086</v>
+      </c>
+      <c r="O10">
+        <v>0.5038135894512022</v>
+      </c>
+      <c r="P10">
+        <v>0.5743473134933728</v>
+      </c>
+      <c r="Q10">
+        <v>0.4595547168364444</v>
+      </c>
+      <c r="R10">
+        <v>4.135992451528</v>
+      </c>
+      <c r="S10">
+        <v>0.1505215591380603</v>
+      </c>
+      <c r="T10">
+        <v>0.1743087362915353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.29313041754486</v>
-      </c>
-      <c r="H5">
-        <v>1.29313041754486</v>
-      </c>
-      <c r="I5">
-        <v>0.6815711880112382</v>
-      </c>
-      <c r="J5">
-        <v>0.6815711880112382</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.560057571394733</v>
-      </c>
-      <c r="N5">
-        <v>0.560057571394733</v>
-      </c>
-      <c r="O5">
-        <v>0.5533512596994015</v>
-      </c>
-      <c r="P5">
-        <v>0.5533512596994015</v>
-      </c>
-      <c r="Q5">
-        <v>0.7242274811468312</v>
-      </c>
-      <c r="R5">
-        <v>0.7242274811468312</v>
-      </c>
-      <c r="S5">
-        <v>0.3771482754608362</v>
-      </c>
-      <c r="T5">
-        <v>0.3771482754608362</v>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.329412666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.988238</v>
+      </c>
+      <c r="I11">
+        <v>0.5511434542319467</v>
+      </c>
+      <c r="J11">
+        <v>0.5598612166091421</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.466323</v>
+      </c>
+      <c r="N11">
+        <v>0.9326460000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3684202348566448</v>
+      </c>
+      <c r="P11">
+        <v>0.2799992914800172</v>
+      </c>
+      <c r="Q11">
+        <v>0.619935702958</v>
+      </c>
+      <c r="R11">
+        <v>3.719614217748</v>
+      </c>
+      <c r="S11">
+        <v>0.2030524008478362</v>
+      </c>
+      <c r="T11">
+        <v>0.1567607439777003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.329412666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.988238</v>
+      </c>
+      <c r="I12">
+        <v>0.5511434542319467</v>
+      </c>
+      <c r="J12">
+        <v>0.5598612166091421</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1617183333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.485155</v>
+      </c>
+      <c r="O12">
+        <v>0.1277661756921529</v>
+      </c>
+      <c r="P12">
+        <v>0.14565339502661</v>
+      </c>
+      <c r="Q12">
+        <v>0.2149904007655555</v>
+      </c>
+      <c r="R12">
+        <v>1.93491360689</v>
+      </c>
+      <c r="S12">
+        <v>0.07041749140497892</v>
+      </c>
+      <c r="T12">
+        <v>0.08154568694284986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.329412666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.988238</v>
+      </c>
+      <c r="I13">
+        <v>0.5511434542319467</v>
+      </c>
+      <c r="J13">
+        <v>0.5598612166091421</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6376953333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.913086</v>
+      </c>
+      <c r="O13">
+        <v>0.5038135894512022</v>
+      </c>
+      <c r="P13">
+        <v>0.5743473134933728</v>
+      </c>
+      <c r="Q13">
+        <v>0.8477602536075555</v>
+      </c>
+      <c r="R13">
+        <v>7.629842282467999</v>
+      </c>
+      <c r="S13">
+        <v>0.2776735619791315</v>
+      </c>
+      <c r="T13">
+        <v>0.321554785688592</v>
       </c>
     </row>
   </sheetData>
